--- a/掲示板表定義.xlsx
+++ b/掲示板表定義.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bbs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\teamb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1505,6 +1505,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1513,7 +1514,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1801,7 +1801,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1815,7 +1815,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="77" t="s">
         <v>308</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1852,144 +1852,144 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="7">
+        <v>5</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B4" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C4" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="5">
         <v>50</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B5" s="16" t="s">
         <v>288</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="D4" s="7">
-        <v>100</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>291</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>292</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>289</v>
       </c>
       <c r="D5" s="7">
+        <v>100</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="7">
         <v>1000</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="75" t="s">
-        <v>293</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" s="7">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7"/>
       <c r="F6" s="9"/>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="75" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="D7" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="75" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="D8" s="7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="11"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="75" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="D9" s="7">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="75" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D10" s="7">
-        <v>5</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>302</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="7"/>
@@ -2007,15 +2007,6 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="7"/>
@@ -2368,7 +2359,7 @@
       <c r="B56" s="40"/>
       <c r="C56" s="31"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="79"/>
+      <c r="E56" s="80"/>
       <c r="F56" s="41"/>
       <c r="G56" s="6"/>
     </row>
@@ -2377,7 +2368,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="35"/>
       <c r="D57" s="21"/>
-      <c r="E57" s="80"/>
+      <c r="E57" s="81"/>
       <c r="F57" s="44"/>
       <c r="G57" s="39"/>
     </row>
@@ -2401,8 +2392,8 @@
       <c r="B61" s="5"/>
       <c r="C61" s="31"/>
       <c r="D61" s="29"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="77"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
       <c r="G61" s="45"/>
     </row>
     <row r="62" spans="1:7" ht="12.5">
@@ -2410,8 +2401,8 @@
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="38"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
       <c r="G62" s="46"/>
     </row>
     <row r="63" spans="1:7" ht="12.5">
@@ -4158,7 +4149,7 @@
       <c r="D56" s="5">
         <v>10</v>
       </c>
-      <c r="E56" s="79" t="s">
+      <c r="E56" s="80" t="s">
         <v>48</v>
       </c>
       <c r="F56" s="41"/>
@@ -4179,7 +4170,7 @@
       <c r="D57" s="21">
         <v>10</v>
       </c>
-      <c r="E57" s="80"/>
+      <c r="E57" s="81"/>
       <c r="F57" s="44"/>
       <c r="G57" s="39">
         <v>1</v>
@@ -4235,10 +4226,10 @@
       <c r="D61" s="29">
         <v>8</v>
       </c>
-      <c r="E61" s="77" t="s">
+      <c r="E61" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="F61" s="77" t="s">
+      <c r="F61" s="78" t="s">
         <v>149</v>
       </c>
       <c r="G61" s="45">
@@ -4258,8 +4249,8 @@
       <c r="D62" s="38">
         <v>10</v>
       </c>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
       <c r="G62" s="46">
         <v>1</v>
       </c>

--- a/掲示板表定義.xlsx
+++ b/掲示板表定義.xlsx
@@ -1026,20 +1026,6 @@
     <phoneticPr fontId="16"/>
   </si>
   <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
     <t>PRIMARY KEY</t>
     <phoneticPr fontId="16"/>
   </si>
@@ -1067,10 +1053,6 @@
     <phoneticPr fontId="16"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
     <t>削除フラグ</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -1082,11 +1064,19 @@
     <phoneticPr fontId="16"/>
   </si>
   <si>
-    <t>boolean</t>
+    <t>コンテンツ表（Contents）</t>
     <phoneticPr fontId="16"/>
   </si>
   <si>
-    <t>コンテンツ表（Contents）</t>
+    <t>post_date</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>number</t>
     <phoneticPr fontId="16"/>
   </si>
 </sst>
@@ -1801,7 +1791,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1816,7 +1806,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="77" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1859,13 +1849,13 @@
         <v>300</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D3" s="7">
         <v>5</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="7"/>
@@ -1918,7 +1908,7 @@
         <v>1000</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7"/>
@@ -1942,10 +1932,10 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="75" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>307</v>
@@ -1979,10 +1969,10 @@
         <v>297</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>298</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>304</v>
       </c>
       <c r="D10" s="7">
         <v>8</v>

--- a/掲示板表定義.xlsx
+++ b/掲示板表定義.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="310">
   <si>
     <t>ユーザー表（USERS）</t>
   </si>
@@ -1077,6 +1077,64 @@
   </si>
   <si>
     <t>number</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>手違いで、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ContentBean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>内の変数名は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>になってしまった</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>テチガ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="16"/>
   </si>
 </sst>
@@ -1371,7 +1429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1504,6 +1562,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1791,7 +1850,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C19" sqref="C19"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1924,7 +1983,7 @@
         <v>290</v>
       </c>
       <c r="D7" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9"/>
@@ -1974,11 +2033,11 @@
       <c r="C10" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="D10" s="7">
-        <v>8</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="82" t="s">
+        <v>309</v>
+      </c>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
